--- a/src/main/resources/data/cdes/tbi_cdes_v1.xlsx
+++ b/src/main/resources/data/cdes/tbi_cdes_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1718,24 +1718,24 @@
   </sheetPr>
   <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="81.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.5918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6128,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
